--- a/example data/group/5 mm - Grand Average Group Stepcycles.xlsx
+++ b/example data/group/5 mm - Grand Average Group Stepcycles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,170 +451,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Nose x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nose y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ear base x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ear base y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Front paw tao x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Front paw tao y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wrist x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wrist y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Elbow x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Elbow y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Shoulder x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lower Shoulder y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Shoulder x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Upper Shoulder y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hip x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hip y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Knee x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Knee y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle x</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ankle y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao x</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tail base x</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Tail base y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tail center x</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Tail center y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tail tip x</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Tail tip y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Velocity</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Acceleration</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Ankle Velocity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Ankle Acceleration</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Knee Velocity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Knee Acceleration</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Hip Velocity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Acceleration</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Velocity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Acceleration</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Acceleration</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Velocity</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Acceleration</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Velocity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
         </is>
@@ -631,105 +706,150 @@
         <v>2.25</v>
       </c>
       <c r="D2" t="n">
+        <v>223.23645689386</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.725084068081898</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>208.4918445729195</v>
+      </c>
+      <c r="G2" t="n">
         <v>13.84978412736392</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>187.6890084422226</v>
+      </c>
+      <c r="I2" t="n">
         <v>-0.2016217996042735</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>184.9245544021011</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.0729610023769</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>186.7596716745525</v>
+      </c>
+      <c r="M2" t="n">
         <v>12.09125637162661</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>195.8512910714387</v>
+      </c>
+      <c r="O2" t="n">
         <v>14.993062425167</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>192.077074997814</v>
+      </c>
+      <c r="Q2" t="n">
         <v>22.82261899177064</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>150.739571304186</v>
+      </c>
+      <c r="S2" t="n">
         <v>26.46927207919723</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
+        <v>145.717059635947</v>
+      </c>
+      <c r="U2" t="n">
         <v>18.81724249386619</v>
       </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>149.318417420624</v>
+      </c>
+      <c r="W2" t="n">
         <v>10.6788177016779</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>137.71029972861</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8.867869140408564</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>138.8565295131494</v>
+      </c>
+      <c r="AA2" t="n">
         <v>-1.187630917163601</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
+        <v>133.9333617095406</v>
+      </c>
+      <c r="AC2" t="n">
         <v>23.73150544809112</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
+        <v>108.7950048717201</v>
+      </c>
+      <c r="AE2" t="n">
         <v>32.25753518706519</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
+        <v>87.46044990864208</v>
+      </c>
+      <c r="AG2" t="n">
         <v>24.53628795366761</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AH2" t="n">
         <v>91.47949338727517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AI2" t="n">
         <v>74.27836904629116</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AJ2" t="n">
         <v>122.4197737998534</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AK2" t="n">
         <v>8.662006871920109</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AL2" t="n">
         <v>0.7788141568501782</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>5.188690686056798</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>0.7090344073924604</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>4.445854061884238</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
         <v>0.05427431975695968</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AQ2" t="n">
         <v>2.188680442512456</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
         <v>0.05952679941840233</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AS2" t="n">
         <v>2.006182476138393</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AT2" t="n">
         <v>-0.070372963628024</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AU2" t="n">
         <v>-10.13700771405186</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
         <v>2.4145955196225</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AW2" t="n">
         <v>-5.973827217369351</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AX2" t="n">
         <v>4.974044838642239</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AY2" t="n">
         <v>-16.6295991892432</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>1.371709929898579</v>
       </c>
     </row>
@@ -744,105 +864,150 @@
         <v>2.25</v>
       </c>
       <c r="D3" t="n">
+        <v>225.3284803519012</v>
+      </c>
+      <c r="E3" t="n">
         <v>4.630022691496727</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>210.4107806023131</v>
+      </c>
+      <c r="G3" t="n">
         <v>13.66326606020015</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>187.6949558866785</v>
+      </c>
+      <c r="I3" t="n">
         <v>-0.1847495423986508</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>185.2179238136779</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.212393260171233</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>188.0448713370249</v>
+      </c>
+      <c r="M3" t="n">
         <v>12.09061111964233</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>197.4711710679616</v>
+      </c>
+      <c r="O3" t="n">
         <v>14.90305721337069</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>193.8091683049574</v>
+      </c>
+      <c r="Q3" t="n">
         <v>22.77405549448432</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>154.7454446765548</v>
+      </c>
+      <c r="S3" t="n">
         <v>26.76653582999047</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>150.438044003561</v>
+      </c>
+      <c r="U3" t="n">
         <v>18.88540332198988</v>
       </c>
-      <c r="M3" t="n">
+      <c r="V3" t="n">
+        <v>158.3275822882957</v>
+      </c>
+      <c r="W3" t="n">
         <v>14.01113533804603</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>150.3139646340769</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5.963642039197557</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
+        <v>158.1017350474148</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.4599474846048534</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>136.3803593824941</v>
+      </c>
+      <c r="AC3" t="n">
         <v>23.2692079341158</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>112.8712392022424</v>
+      </c>
+      <c r="AE3" t="n">
         <v>33.94929534154581</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
+        <v>90.19722308672914</v>
+      </c>
+      <c r="AG3" t="n">
         <v>29.7462505651704</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AH3" t="n">
         <v>80.63811623206996</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AI3" t="n">
         <v>76.84176002137167</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AJ3" t="n">
         <v>93.21346399250569</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AK3" t="n">
         <v>7.713673596686505</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AL3" t="n">
         <v>-1.426126157983821</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AM3" t="n">
         <v>5.682067287729143</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AN3" t="n">
         <v>-0.4011944464757916</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AO3" t="n">
         <v>3.435913129901212</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AP3" t="n">
         <v>-0.6978194130227923</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AQ3" t="n">
         <v>2.093321169521792</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AR3" t="n">
         <v>-0.1455863528217831</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AS3" t="n">
         <v>1.786869933419192</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AT3" t="n">
         <v>-0.09741502027985011</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AU3" t="n">
         <v>1.131310014944935</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AV3" t="n">
         <v>4.847402636983727</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AW3" t="n">
         <v>7.470486918928588</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>3.119695660666703</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AY3" t="n">
         <v>-8.67757317515415</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AZ3" t="n">
         <v>3.948879467724484</v>
       </c>
     </row>
@@ -857,105 +1022,150 @@
         <v>2.25</v>
       </c>
       <c r="D4" t="n">
+        <v>227.4993401364232</v>
+      </c>
+      <c r="E4" t="n">
         <v>5.023938206070705</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>212.5845585309022</v>
+      </c>
+      <c r="G4" t="n">
         <v>13.73679976091318</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>187.6837875826139</v>
+      </c>
+      <c r="I4" t="n">
         <v>-0.1574200095859813</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>185.4725516434257</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.260680969725263</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>189.759656808055</v>
+      </c>
+      <c r="M4" t="n">
         <v>12.15956566181589</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>199.2915219448982</v>
+      </c>
+      <c r="O4" t="n">
         <v>14.95107285519864</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>195.9061591337759</v>
+      </c>
+      <c r="Q4" t="n">
         <v>22.97027026507871</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>158.1190922581558</v>
+      </c>
+      <c r="S4" t="n">
         <v>26.75304624205786</v>
       </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>154.0964374305509</v>
+      </c>
+      <c r="U4" t="n">
         <v>18.55535456474791</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
+        <v>163.5987485554201</v>
+      </c>
+      <c r="W4" t="n">
         <v>15.39717075672555</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>159.8196025435806</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.841421959247997</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>169.3209011503991</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.7621234190379447</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
+        <v>138.944111817272</v>
+      </c>
+      <c r="AC4" t="n">
         <v>22.03226004931943</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>117.7644967187381</v>
+      </c>
+      <c r="AE4" t="n">
         <v>34.6290537651549</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
+        <v>102.4370076385796</v>
+      </c>
+      <c r="AG4" t="n">
         <v>31.94733071834483</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AH4" t="n">
         <v>90.51384850299311</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AI4" t="n">
         <v>90.80478834481683</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AJ4" t="n">
         <v>82.43761702164247</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AK4" t="n">
         <v>3.409170005338414</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AL4" t="n">
         <v>-1.811922759029037</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AM4" t="n">
         <v>3.403749744942848</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AN4" t="n">
         <v>-1.127948490440423</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AO4" t="n">
         <v>1.952821734949204</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AP4" t="n">
         <v>-0.4931102619103502</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
         <v>1.45254042131681</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AR4" t="n">
         <v>-0.2944313042552739</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AS4" t="n">
         <v>1.287318628730504</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AT4" t="n">
         <v>-0.3611202146990095</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AU4" t="n">
         <v>5.610186404176631</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AV4" t="n">
         <v>0.7690745729204627</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AW4" t="n">
         <v>3.220886019092839</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
         <v>-3.191584127541573</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>-2.773652104057568</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
         <v>2.174277708078429</v>
       </c>
     </row>
@@ -970,105 +1180,150 @@
         <v>2.25</v>
       </c>
       <c r="D5" t="n">
+        <v>229.3617508618544</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.071811980389537</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>214.7861552999375</v>
+      </c>
+      <c r="G5" t="n">
         <v>13.71445148549182</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>187.8806038951197</v>
+      </c>
+      <c r="I5" t="n">
         <v>-0.0149901031602333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>185.9418185890144</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.616943088829095</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>191.3856187610762</v>
+      </c>
+      <c r="M5" t="n">
         <v>12.25542041426856</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>201.0020148669574</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.02758188450591</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>197.7345969660062</v>
+      </c>
+      <c r="Q5" t="n">
         <v>23.09751967166333</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>159.9821450017023</v>
+      </c>
+      <c r="S5" t="n">
         <v>26.40261675449128</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>156.5609574317932</v>
+      </c>
+      <c r="U5" t="n">
         <v>17.91753329283802</v>
       </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>166.7340845080978</v>
+      </c>
+      <c r="W5" t="n">
         <v>15.50396148194659</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
+        <v>164.4168160485883</v>
+      </c>
+      <c r="Y5" t="n">
         <v>3.915041220103594</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
+        <v>173.0127305003769</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.378583339934654</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
+        <v>141.1609571876256</v>
+      </c>
+      <c r="AC5" t="n">
         <v>20.49356707444428</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
+        <v>120.622699734167</v>
+      </c>
+      <c r="AE5" t="n">
         <v>32.21631929384056</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
+        <v>101.4496066046099</v>
+      </c>
+      <c r="AG5" t="n">
         <v>33.63958910001931</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AH5" t="n">
         <v>101.1462688075943</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AI5" t="n">
         <v>92.1194467629924</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AJ5" t="n">
         <v>81.53513016550886</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
         <v>1.139154966841352</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AL5" t="n">
         <v>-0.7549860164628815</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AM5" t="n">
         <v>1.504119279536796</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AN5" t="n">
         <v>-0.8406968192851296</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AO5" t="n">
         <v>1.2625183619506</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
         <v>-0.3432950440873487</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
         <v>1.138004216742009</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AR5" t="n">
         <v>-0.1248520528171076</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AS5" t="n">
         <v>0.8665446694015614</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AT5" t="n">
         <v>-0.008134892646299553</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AU5" t="n">
         <v>3.997722476329303</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AV5" t="n">
         <v>-1.702479919794159</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AW5" t="n">
         <v>-0.3301940437734061</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>-1.05689080101442</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AY5" t="n">
         <v>0.6589641528170531</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>0.5406472614571104</v>
       </c>
     </row>
@@ -1083,105 +1338,150 @@
         <v>2.25</v>
       </c>
       <c r="D6" t="n">
+        <v>231.2724806764658</v>
+      </c>
+      <c r="E6" t="n">
         <v>4.844559507167085</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>217.1154820749946</v>
+      </c>
+      <c r="G6" t="n">
         <v>13.86931703445759</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>190.0484200065017</v>
+      </c>
+      <c r="I6" t="n">
         <v>-0.2019324201218655</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>189.6712719971407</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.971252881043342</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>194.3374013224392</v>
+      </c>
+      <c r="M6" t="n">
         <v>12.72887355046915</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>203.7028797974824</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.42626864521216</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>200.4492960077651</v>
+      </c>
+      <c r="Q6" t="n">
         <v>23.43260024456268</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>161.8839925062572</v>
+      </c>
+      <c r="S6" t="n">
         <v>26.21348707388479</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
+        <v>158.6424724430057</v>
+      </c>
+      <c r="U6" t="n">
         <v>17.66205341257948</v>
       </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>168.762000570906</v>
+      </c>
+      <c r="W6" t="n">
         <v>15.27650863566297</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>165.9037409099281</v>
+      </c>
+      <c r="Y6" t="n">
         <v>3.816768632712937</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
+        <v>174.0531990714107</v>
+      </c>
+      <c r="AA6" t="n">
         <v>-0.5027605286726698</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>143.1926958949853</v>
+      </c>
+      <c r="AC6" t="n">
         <v>19.92000349869965</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
+        <v>121.5701286674391</v>
+      </c>
+      <c r="AE6" t="n">
         <v>29.51141950931955</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
+        <v>103.5272434248147</v>
+      </c>
+      <c r="AG6" t="n">
         <v>28.79115064093407</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AH6" t="n">
         <v>103.7394803745738</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AI6" t="n">
         <v>89.01584454634124</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AJ6" t="n">
         <v>82.51240145116262</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AK6" t="n">
         <v>0.338975461662237</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
         <v>-0.2332253236297168</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
         <v>0.4853611296795792</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AN6" t="n">
         <v>-0.335620607890135</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>0.9318205058997391</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
         <v>-0.1346529798304784</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>0.9639908235969269</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AR6" t="n">
         <v>-0.09479057704303535</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AS6" t="n">
         <v>0.9140503744707058</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AT6" t="n">
         <v>-0.04878726834101302</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AU6" t="n">
         <v>-0.4173708085024045</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AV6" t="n">
         <v>-2.287515267285646</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>-1.807298760645384</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AX6" t="n">
         <v>-0.1050449752283673</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AY6" t="n">
         <v>0.820600307070029</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>0.5225170412166573</v>
       </c>
     </row>
@@ -1196,105 +1496,150 @@
         <v>2.25</v>
       </c>
       <c r="D7" t="n">
+        <v>215.5397848536571</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.010434028950145</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>219.9983284828511</v>
+      </c>
+      <c r="G7" t="n">
         <v>13.89952365388262</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>198.4082735599355</v>
+      </c>
+      <c r="I7" t="n">
         <v>-0.1490297046958943</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>199.4659886292532</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.982159601035699</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>198.0246465256874</v>
+      </c>
+      <c r="M7" t="n">
         <v>13.20091308431423</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>206.7907640274535</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.82536477569147</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>203.4886789660082</v>
+      </c>
+      <c r="Q7" t="n">
         <v>23.36643207157758</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>163.712570684176</v>
+      </c>
+      <c r="S7" t="n">
         <v>26.03471279144287</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
+        <v>160.4250570561024</v>
+      </c>
+      <c r="U7" t="n">
         <v>17.62513370378644</v>
       </c>
-      <c r="M7" t="n">
+      <c r="V7" t="n">
+        <v>170.3333092074022</v>
+      </c>
+      <c r="W7" t="n">
         <v>14.62062369001672</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>166.3944498021552</v>
+      </c>
+      <c r="Y7" t="n">
         <v>3.819257655042284</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Z7" t="n">
+        <v>174.4379754607559</v>
+      </c>
+      <c r="AA7" t="n">
         <v>-0.7524136955856391</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
+        <v>145.1982646123737</v>
+      </c>
+      <c r="AC7" t="n">
         <v>19.91363383354025</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
+        <v>122.1751807429266</v>
+      </c>
+      <c r="AE7" t="n">
         <v>28.317162838388</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
+        <v>104.6419830186993</v>
+      </c>
+      <c r="AG7" t="n">
         <v>26.66602337614019</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AH7" t="n">
         <v>99.14486773579992</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AI7" t="n">
         <v>86.55469280182621</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AJ7" t="n">
         <v>85.47353207455799</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AK7" t="n">
         <v>0.1277300905674041</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
         <v>-0.07230053979454437</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
         <v>0.2154176962291077</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AN7" t="n">
         <v>-0.06415064030505409</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>0.7654302086390505</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>-0.03819672773915973</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>0.8734183531280936</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AR7" t="n">
         <v>0.006627465816255364</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AS7" t="n">
         <v>0.9979723615849239</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AT7" t="n">
         <v>0.133037207819891</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AU7" t="n">
         <v>-2.68996321401349</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
         <v>-0.2109716474149025</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AW7" t="n">
         <v>-1.423066744209331</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AX7" t="n">
         <v>0.07133099281818878</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AY7" t="n">
         <v>0.6053330489138875</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
         <v>-0.7567565210841815</v>
       </c>
     </row>
@@ -1309,105 +1654,150 @@
         <v>2.25</v>
       </c>
       <c r="D8" t="n">
+        <v>217.3468923315089</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.926892835197718</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>223.0655464931583</v>
+      </c>
+      <c r="G8" t="n">
         <v>14.50468665319132</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>212.5613474888159</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.9216883503798922</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>210.0322093946714</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.332575899489385</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>202.4841107797961</v>
+      </c>
+      <c r="M8" t="n">
         <v>11.79418107296559</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>210.7261364341628</v>
+      </c>
+      <c r="O8" t="n">
         <v>15.58713625508843</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>207.0157049818242</v>
+      </c>
+      <c r="Q8" t="n">
         <v>23.16670992695693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>165.9601876921688</v>
+      </c>
+      <c r="S8" t="n">
         <v>26.18482772340166</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>162.2053268953418</v>
+      </c>
+      <c r="U8" t="n">
         <v>17.92082245468248</v>
       </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>171.7360567539296</v>
+      </c>
+      <c r="W8" t="n">
         <v>14.37988196704405</v>
       </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>166.7502825141799</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3.936904541989594</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Z8" t="n">
+        <v>174.6210882004271</v>
+      </c>
+      <c r="AA8" t="n">
         <v>-0.6261681834011212</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
+        <v>147.3167372933517</v>
+      </c>
+      <c r="AC8" t="n">
         <v>20.55250888175152</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
+        <v>122.4348452919764</v>
+      </c>
+      <c r="AE8" t="n">
         <v>27.64451402298948</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
+        <v>105.1414383218643</v>
+      </c>
+      <c r="AG8" t="n">
         <v>25.28432945833138</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AH8" t="n">
         <v>94.08004811191765</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AI8" t="n">
         <v>84.69443660600093</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AJ8" t="n">
         <v>85.87827760206252</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AK8" t="n">
         <v>0.1394414732642228</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
         <v>0.008705342915043941</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AM8" t="n">
         <v>0.1329580942789697</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AN8" t="n">
         <v>-0.09078508150492935</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>0.6815894698420321</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
         <v>-0.03630711254498438</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AQ8" t="n">
         <v>0.9943881356124342</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AR8" t="n">
         <v>0.08401490272359893</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
         <v>1.304090910769524</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AT8" t="n">
         <v>0.09853277646058145</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AU8" t="n">
         <v>-2.64590124637568</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AV8" t="n">
         <v>-0.7126679141154899</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AW8" t="n">
         <v>-0.2907456697893838</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AX8" t="n">
         <v>0.5111681995352212</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
         <v>0.7923996640545901</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>1.116639085512573</v>
       </c>
     </row>
@@ -1422,105 +1812,150 @@
         <v>2.25</v>
       </c>
       <c r="D9" t="n">
+        <v>224.8150868830106</v>
+      </c>
+      <c r="E9" t="n">
         <v>6.934305116639917</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>225.5889927426763</v>
+      </c>
+      <c r="G9" t="n">
         <v>14.1564538292851</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>220.5269745636916</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.47457816076617</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>216.584294949863</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.793219640745343</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>207.3311709343119</v>
+      </c>
+      <c r="M9" t="n">
         <v>10.0644681470614</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>214.7800523127225</v>
+      </c>
+      <c r="O9" t="n">
         <v>14.80743056493448</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>210.90890853963</v>
+      </c>
+      <c r="Q9" t="n">
         <v>22.27481375349329</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>168.6551557365039</v>
+      </c>
+      <c r="S9" t="n">
         <v>26.18269615984978</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
+        <v>164.3503140895925</v>
+      </c>
+      <c r="U9" t="n">
         <v>18.03763589115007</v>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
+        <v>173.027256279127</v>
+      </c>
+      <c r="W9" t="n">
         <v>13.41616380299237</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>166.772915031893</v>
+      </c>
+      <c r="Y9" t="n">
         <v>4.026369000157565</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Z9" t="n">
+        <v>174.8472852909819</v>
+      </c>
+      <c r="AA9" t="n">
         <v>-0.8111935135320583</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>149.440586566925</v>
+      </c>
+      <c r="AC9" t="n">
         <v>21.15277533835553</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
+        <v>123.186534685446</v>
+      </c>
+      <c r="AE9" t="n">
         <v>26.95877907123971</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
+        <v>106.547908072776</v>
+      </c>
+      <c r="AG9" t="n">
         <v>22.96706006882039</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AH9" t="n">
         <v>86.84297423996222</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AI9" t="n">
         <v>84.42040972020386</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>90.35057666797702</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AK9" t="n">
         <v>0.1439846576528341</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
         <v>-0.01591697652289504</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AM9" t="n">
         <v>0.03460793630451184</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AN9" t="n">
         <v>-0.01782121810507232</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>0.7067262703645336</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
         <v>-0.005365982123301062</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AQ9" t="n">
         <v>1.099963179716831</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AR9" t="n">
         <v>-0.0422249026332371</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AS9" t="n">
         <v>1.198217674350064</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AT9" t="n">
         <v>-0.1583131281196632</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>-3.857235092825969</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>0.0189289060288528</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AW9" t="n">
         <v>-0.5274248322123112</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
         <v>-0.3149577958868823</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AY9" t="n">
         <v>3.164827731691406</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
         <v>0.576019865066471</v>
       </c>
     </row>
@@ -1535,105 +1970,150 @@
         <v>2.25</v>
       </c>
       <c r="D10" t="n">
+        <v>229.3573971705657</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.035702847419901</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>227.6450926451184</v>
+      </c>
+      <c r="G10" t="n">
         <v>14.18079788803209</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>224.9545649592336</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.53012055877253</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>220.9998228765548</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.590993340133773</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>210.8351668567522</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.565051396687826</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>217.7189979781496</v>
+      </c>
+      <c r="O10" t="n">
         <v>14.50939719558608</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>213.7155581873359</v>
+      </c>
+      <c r="Q10" t="n">
         <v>22.00538063725681</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>170.4575470998778</v>
+      </c>
+      <c r="S10" t="n">
         <v>26.26791304730354</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
+        <v>166.2579034237152</v>
+      </c>
+      <c r="U10" t="n">
         <v>18.05153907613551</v>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
+        <v>174.3378087983909</v>
+      </c>
+      <c r="W10" t="n">
         <v>12.81227490580674</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
+        <v>166.9392724409171</v>
+      </c>
+      <c r="Y10" t="n">
         <v>4.18415796672199</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Z10" t="n">
+        <v>175.0728985942002</v>
+      </c>
+      <c r="AA10" t="n">
         <v>-0.8056043733096278</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
+        <v>151.6117843330329</v>
+      </c>
+      <c r="AC10" t="n">
         <v>21.58744132265132</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>124.0973031267207</v>
+      </c>
+      <c r="AE10" t="n">
         <v>26.42311187500649</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
+        <v>112.2479466681785</v>
+      </c>
+      <c r="AG10" t="n">
         <v>17.84109409819258</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AH10" t="n">
         <v>80.64020128986174</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AI10" t="n">
         <v>82.79754612593239</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AJ10" t="n">
         <v>96.5217546809634</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AK10" t="n">
         <v>0.0993446255406584</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
         <v>-0.06048070623519324</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AM10" t="n">
         <v>0.05089890026877179</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AN10" t="n">
         <v>-0.08679226780614213</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>0.5995544981449213</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
         <v>-0.08902211561270844</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AQ10" t="n">
         <v>0.9964110158013941</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AR10" t="n">
         <v>-0.06430039169095145</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AS10" t="n">
         <v>1.049113611802991</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AT10" t="n">
         <v>-0.02108850377671367</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AU10" t="n">
         <v>-3.092772806646829</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
         <v>-0.04085843993920099</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AW10" t="n">
         <v>-0.3243812838654503</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AX10" t="n">
         <v>0.08678210749076036</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
         <v>3.421937122376375</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AZ10" t="n">
         <v>-0.03959945523242668</v>
       </c>
     </row>
@@ -1648,105 +2128,150 @@
         <v>2.25</v>
       </c>
       <c r="D11" t="n">
+        <v>230.998994779925</v>
+      </c>
+      <c r="E11" t="n">
         <v>6.666899234690561</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>229.4747293048294</v>
+      </c>
+      <c r="G11" t="n">
         <v>14.18467328903523</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>228.4928214439052</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.515297686800042</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>224.2289957108227</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.524579393102768</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>213.5751200483201</v>
+      </c>
+      <c r="M11" t="n">
         <v>9.262111677345656</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>220.387276478693</v>
+      </c>
+      <c r="O11" t="n">
         <v>14.39120025499493</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>216.2559046178845</v>
+      </c>
+      <c r="Q11" t="n">
         <v>21.89164466046273</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>172.2835968572198</v>
+      </c>
+      <c r="S11" t="n">
         <v>26.50995423607793</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
+        <v>167.879387334729</v>
+      </c>
+      <c r="U11" t="n">
         <v>18.34601595046673</v>
       </c>
-      <c r="M11" t="n">
+      <c r="V11" t="n">
+        <v>175.2210804756651</v>
+      </c>
+      <c r="W11" t="n">
         <v>12.1989407437913</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
+        <v>166.9644600956153</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.640858055006535</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Z11" t="n">
+        <v>175.1884960959144</v>
+      </c>
+      <c r="AA11" t="n">
         <v>-0.7885910940508408</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
+        <v>153.7854177731994</v>
+      </c>
+      <c r="AC11" t="n">
         <v>21.97563259314138</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AD11" t="n">
+        <v>126.3663877832129</v>
+      </c>
+      <c r="AE11" t="n">
         <v>26.76103605446241</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
+        <v>108.2290233449733</v>
+      </c>
+      <c r="AG11" t="n">
         <v>19.12240339509139</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AH11" t="n">
         <v>75.47622597972666</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AI11" t="n">
         <v>82.81090708123355</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AJ11" t="n">
         <v>102.4193555621226</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AK11" t="n">
         <v>-0.004147215092432287</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AL11" t="n">
         <v>-0.05581598755315646</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AM11" t="n">
         <v>-0.05999203269363577</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AN11" t="n">
         <v>0.02820804609474559</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
         <v>0.5596189634174283</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AP11" t="n">
         <v>-0.01598782573185938</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AQ11" t="n">
         <v>1.012812354040484</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AR11" t="n">
         <v>0.03978736857150304</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AS11" t="n">
         <v>1.147070928668297</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AT11" t="n">
         <v>0.1125877630626032</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AU11" t="n">
         <v>-3.706170181148372</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AV11" t="n">
         <v>0.166117620434681</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
         <v>-0.4649116702423892</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AX11" t="n">
         <v>0.1087831516654568</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AY11" t="n">
         <v>3.236474018355596</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>-0.3726701789272161</v>
       </c>
     </row>
@@ -1761,105 +2286,150 @@
         <v>2.25</v>
       </c>
       <c r="D12" t="n">
+        <v>206.4323039342326</v>
+      </c>
+      <c r="E12" t="n">
         <v>6.548536584732378</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>231.0491990984966</v>
+      </c>
+      <c r="G12" t="n">
         <v>14.75317562725527</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>231.0365368975392</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.804283155617134</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>226.6967410842578</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.564857252946137</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>216.1200856063383</v>
+      </c>
+      <c r="M12" t="n">
         <v>9.211691727874967</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>222.7875754025811</v>
+      </c>
+      <c r="O12" t="n">
         <v>14.32635361421193</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>218.6976873494209</v>
+      </c>
+      <c r="Q12" t="n">
         <v>21.75501593461273</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>174.0777643014353</v>
+      </c>
+      <c r="S12" t="n">
         <v>26.49128124223534</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>169.4565504155261</v>
+      </c>
+      <c r="U12" t="n">
         <v>18.27372963546862</v>
       </c>
-      <c r="M12" t="n">
+      <c r="V12" t="n">
+        <v>176.0560495633605</v>
+      </c>
+      <c r="W12" t="n">
         <v>11.61246215198057</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>167.1664359721732</v>
+      </c>
+      <c r="Y12" t="n">
         <v>4.874265785758377</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Z12" t="n">
+        <v>175.174088850089</v>
+      </c>
+      <c r="AA12" t="n">
         <v>-0.7317214992874892</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
+        <v>155.8507816165897</v>
+      </c>
+      <c r="AC12" t="n">
         <v>21.92054031588507</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AD12" t="n">
+        <v>127.5144690317465</v>
+      </c>
+      <c r="AE12" t="n">
         <v>26.2346587282546</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
+        <v>103.8690120615858</v>
+      </c>
+      <c r="AG12" t="n">
         <v>18.55604952954231</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AH12" t="n">
         <v>71.0868948588226</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AI12" t="n">
         <v>82.0768528224224</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AJ12" t="n">
         <v>106.6426803408243</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AK12" t="n">
         <v>-0.01584917095536239</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AL12" t="n">
         <v>0.02140698703467928</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>0.08053897965884449</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AN12" t="n">
         <v>0.02878409750918317</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AO12" t="n">
         <v>0.5238175392150894</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AP12" t="n">
         <v>0.01707609663618396</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AQ12" t="n">
         <v>0.9261555705510114</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AR12" t="n">
         <v>0.04512693019623583</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AS12" t="n">
         <v>1.136920638118231</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AT12" t="n">
         <v>0.04153526421134414</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AU12" t="n">
         <v>-2.271686549868544</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>0.1900497698734182</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AW12" t="n">
         <v>-0.3107674543613987</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AX12" t="n">
         <v>0.09473744564724867</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AY12" t="n">
         <v>1.819872936518264</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>0.08602382412700887</v>
       </c>
     </row>
@@ -1874,105 +2444,150 @@
         <v>2.25</v>
       </c>
       <c r="D13" t="n">
+        <v>208.4330478881268</v>
+      </c>
+      <c r="E13" t="n">
         <v>6.19044878804092</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>232.5190184281227</v>
+      </c>
+      <c r="G13" t="n">
         <v>15.19208799862693</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>232.8277862716651</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.678240721952831</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>228.85188002747</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.426586989815355</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>218.4694723034582</v>
+      </c>
+      <c r="M13" t="n">
         <v>9.127246234433866</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>224.7205737027082</v>
+      </c>
+      <c r="O13" t="n">
         <v>14.48986902304575</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>220.6966649767355</v>
+      </c>
+      <c r="Q13" t="n">
         <v>21.88548669747427</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>175.9425019541531</v>
+      </c>
+      <c r="S13" t="n">
         <v>26.00940567381839</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>170.9081504361849</v>
+      </c>
+      <c r="U13" t="n">
         <v>17.9761343813957</v>
       </c>
-      <c r="M13" t="n">
+      <c r="V13" t="n">
+        <v>176.8735398637488</v>
+      </c>
+      <c r="W13" t="n">
         <v>10.86413031774209</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
+        <v>167.2705225910701</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.952989740574605</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Z13" t="n">
+        <v>175.2009702912459</v>
+      </c>
+      <c r="AA13" t="n">
         <v>-1.033520022182601</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>157.8612368157569</v>
+      </c>
+      <c r="AC13" t="n">
         <v>21.4991087609149</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AD13" t="n">
+        <v>128.0294632235317</v>
+      </c>
+      <c r="AE13" t="n">
         <v>25.56698094023035</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
+        <v>104.8467038371039</v>
+      </c>
+      <c r="AG13" t="n">
         <v>17.64608917506873</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AH13" t="n">
         <v>67.9852580371717</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AI13" t="n">
         <v>81.37539952356093</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AJ13" t="n">
         <v>108.8401402889813</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AK13" t="n">
         <v>0.03189660133199308</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AL13" t="n">
         <v>0.03863048891649441</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AM13" t="n">
         <v>0.1042664473783901</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AN13" t="n">
         <v>0.12786532124729</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AO13" t="n">
         <v>0.5492475861353214</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AP13" t="n">
         <v>0.07820218167406442</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AQ13" t="n">
         <v>1.117216103465843</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AR13" t="n">
         <v>0.1124524901099231</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AS13" t="n">
         <v>1.23784635083895</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AT13" t="n">
         <v>-0.04865987926510177</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AU13" t="n">
         <v>-2.547266100225739</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
         <v>0.2840928681097731</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AW13" t="n">
         <v>0.1609439681313605</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
         <v>0.1225667148045869</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AY13" t="n">
         <v>3.323665079165322</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>1.279513978718526</v>
       </c>
     </row>
@@ -1987,105 +2602,150 @@
         <v>2.25</v>
       </c>
       <c r="D14" t="n">
+        <v>210.023535777491</v>
+      </c>
+      <c r="E14" t="n">
         <v>6.198350250298256</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>233.8403059658429</v>
+      </c>
+      <c r="G14" t="n">
         <v>15.83656909617972</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>233.5395028088109</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.342847330350409</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>229.6446801447277</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.414803362907255</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>220.0531754721986</v>
+      </c>
+      <c r="M14" t="n">
         <v>9.447489562609523</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>226.1734679235634</v>
+      </c>
+      <c r="O14" t="n">
         <v>14.79657660139369</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>221.9914025343056</v>
+      </c>
+      <c r="Q14" t="n">
         <v>22.04529816377248</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>177.5235940378608</v>
+      </c>
+      <c r="S14" t="n">
         <v>25.79491840186694</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
+        <v>172.5365432441657</v>
+      </c>
+      <c r="U14" t="n">
         <v>17.81542115177669</v>
       </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
+        <v>177.716215958832</v>
+      </c>
+      <c r="W14" t="n">
         <v>10.06713657514424</v>
       </c>
-      <c r="N14" t="n">
+      <c r="X14" t="n">
+        <v>167.5556749316817</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.289807218186399</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Z14" t="n">
+        <v>175.2596724963357</v>
+      </c>
+      <c r="AA14" t="n">
         <v>-1.059948468039224</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
+        <v>159.7653236794979</v>
+      </c>
+      <c r="AC14" t="n">
         <v>21.20543464701227</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AD14" t="n">
+        <v>129.6722362227474</v>
+      </c>
+      <c r="AE14" t="n">
         <v>26.07354255432778</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
+        <v>105.830645814855</v>
+      </c>
+      <c r="AG14" t="n">
         <v>18.39561868221202</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AH14" t="n">
         <v>64.40273273120528</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AI14" t="n">
         <v>81.42997455680174</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AJ14" t="n">
         <v>114.9371881159367</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AK14" t="n">
         <v>0.05658256246688683</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AL14" t="n">
         <v>-0.01302670079765338</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
         <v>0.2152757441743889</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AN14" t="n">
         <v>0.03670255343119393</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>0.6290280227120033</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AP14" t="n">
         <v>0.0753210368731357</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>1.0783333304926</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AR14" t="n">
         <v>0.0006039937337263268</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AS14" t="n">
         <v>1.066506754422022</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AT14" t="n">
         <v>-0.02311764033973514</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AU14" t="n">
         <v>-2.020660995723768</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AV14" t="n">
         <v>0.5294728864954062</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="n">
         <v>-0.1408126208197277</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AX14" t="n">
         <v>-0.2265150614866573</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AY14" t="n">
         <v>3.799080938293324</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>-0.4917322367744782</v>
       </c>
     </row>
@@ -2100,105 +2760,150 @@
         <v>2.25</v>
       </c>
       <c r="D15" t="n">
+        <v>219.7145919850532</v>
+      </c>
+      <c r="E15" t="n">
         <v>6.096246394705272</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>219.9808612901797</v>
+      </c>
+      <c r="G15" t="n">
         <v>15.79055786132813</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>233.6779167717124</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.354416380537319</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>229.8760537929991</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.6520613000748</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>221.0683516365416</v>
+      </c>
+      <c r="M15" t="n">
         <v>9.81650656842171</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>227.6503248615785</v>
+      </c>
+      <c r="O15" t="n">
         <v>15.10818258244941</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>223.5374728732921</v>
+      </c>
+      <c r="Q15" t="n">
         <v>22.34603141216522</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>179.0802055216851</v>
+      </c>
+      <c r="S15" t="n">
         <v>25.56706743037447</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
+        <v>174.0883964173337</v>
+      </c>
+      <c r="U15" t="n">
         <v>17.56565824468085</v>
       </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
+        <v>178.7169900346309</v>
+      </c>
+      <c r="W15" t="n">
         <v>9.467249728263695</v>
       </c>
-      <c r="N15" t="n">
+      <c r="X15" t="n">
+        <v>167.8598388712457</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.432300364717527</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Z15" t="n">
+        <v>175.2411890537181</v>
+      </c>
+      <c r="AA15" t="n">
         <v>-1.270317524037459</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
+        <v>161.5889184018399</v>
+      </c>
+      <c r="AC15" t="n">
         <v>20.76359758985804</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AD15" t="n">
+        <v>129.7561318316359</v>
+      </c>
+      <c r="AE15" t="n">
         <v>26.07454949236931</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
+        <v>106.5903236257269</v>
+      </c>
+      <c r="AG15" t="n">
         <v>17.57520513331637</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AH15" t="n">
         <v>62.1971346856723</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AI15" t="n">
         <v>80.59743415261546</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AJ15" t="n">
         <v>119.051046676202</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AK15" t="n">
         <v>-0.03867187398544658</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AL15" t="n">
         <v>-0.0235451028702145</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AM15" t="n">
         <v>0.1748190281238999</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AN15" t="n">
         <v>0.05814978416929817</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AO15" t="n">
         <v>0.6691268149842617</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AP15" t="n">
         <v>-0.0160923663606014</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AQ15" t="n">
         <v>1.074907627511535</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AR15" t="n">
         <v>-0.006629368092150759</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AS15" t="n">
         <v>1.02299299645931</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AT15" t="n">
         <v>-0.01022302089853924</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
         <v>-1.43179216552939</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AV15" t="n">
         <v>0.6959972400095554</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AW15" t="n">
         <v>-0.5946930471953212</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AX15" t="n">
         <v>0.02686063837786956</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AY15" t="n">
         <v>2.939716483688164</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AZ15" t="n">
         <v>-0.2028076337673858</v>
       </c>
     </row>
@@ -2213,105 +2918,150 @@
         <v>2.25</v>
       </c>
       <c r="D16" t="n">
+        <v>229.5829225529699</v>
+      </c>
+      <c r="E16" t="n">
         <v>5.717834513238136</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>229.4880505968282</v>
+      </c>
+      <c r="G16" t="n">
         <v>17.19504011438248</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>233.8100713142689</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.324775371145693</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>230.1649104090448</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.514376092464367</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>222.2931203214412</v>
+      </c>
+      <c r="M16" t="n">
         <v>9.880074034345913</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>228.5119837585916</v>
+      </c>
+      <c r="O16" t="n">
         <v>15.12769536769136</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>224.7918687443784</v>
+      </c>
+      <c r="Q16" t="n">
         <v>22.54894439210283</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>180.3881513311508</v>
+      </c>
+      <c r="S16" t="n">
         <v>25.22023434334613</v>
       </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
+        <v>175.5279576524775</v>
+      </c>
+      <c r="U16" t="n">
         <v>17.23806502971244</v>
       </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>179.5840448521553</v>
+      </c>
+      <c r="W16" t="n">
         <v>9.011341663117108</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>168.1066119924504</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.629122510869452</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Z16" t="n">
+        <v>175.1630268198379</v>
+      </c>
+      <c r="AA16" t="n">
         <v>-1.39183693743767</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>163.4685348957143</v>
+      </c>
+      <c r="AC16" t="n">
         <v>20.06426060453374</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AD16" t="n">
+        <v>131.4399835911203</v>
+      </c>
+      <c r="AE16" t="n">
         <v>25.38852438013604</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
+        <v>107.0051879958904</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15.79746388374491</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AH16" t="n">
         <v>61.0324735211068</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AI16" t="n">
         <v>79.79892987387186</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AJ16" t="n">
         <v>122.9269477447037</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AK16" t="n">
         <v>0.01615996056414026</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AL16" t="n">
         <v>-0.01157179791876884</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AM16" t="n">
         <v>0.3782402961812092</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AN16" t="n">
         <v>0.05372642202579891</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
         <v>0.7006810066547846</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AP16" t="n">
         <v>-0.07981239481175351</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AQ16" t="n">
         <v>1.2036255065431</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
         <v>0.01537913971758842</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AS16" t="n">
         <v>1.127707831403041</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AT16" t="n">
         <v>0.07593206902768079</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AU16" t="n">
         <v>-0.6283232645389023</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
         <v>0.1819289607693695</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AW16" t="n">
         <v>0.05439449394808216</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AX16" t="n">
         <v>0.4823905533900027</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AY16" t="n">
         <v>3.863554714069875</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
         <v>0.5497378430705535</v>
       </c>
     </row>
@@ -2326,105 +3076,150 @@
         <v>2.25</v>
       </c>
       <c r="D17" t="n">
+        <v>230.7197705941632</v>
+      </c>
+      <c r="E17" t="n">
         <v>5.774430011181122</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>231.2289137631021</v>
+      </c>
+      <c r="G17" t="n">
         <v>15.70484993305612</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>234.0411091738559</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.367632886196706</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>230.4563488414947</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.671216964721681</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>223.3668600783703</v>
+      </c>
+      <c r="M17" t="n">
         <v>10.28959903311223</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>229.5280132918282</v>
+      </c>
+      <c r="O17" t="n">
         <v>15.34737729011698</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>225.7760231006653</v>
+      </c>
+      <c r="Q17" t="n">
         <v>22.77862416936997</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>181.9366409423504</v>
+      </c>
+      <c r="S17" t="n">
         <v>25.09826294919278</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>177.1035696597809</v>
+      </c>
+      <c r="U17" t="n">
         <v>17.08947749848062</v>
       </c>
-      <c r="M17" t="n">
+      <c r="V17" t="n">
+        <v>180.344402282796</v>
+      </c>
+      <c r="W17" t="n">
         <v>8.400702983775041</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>168.6607601794791</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.129903996244394</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Z17" t="n">
+        <v>175.1977009976164</v>
+      </c>
+      <c r="AA17" t="n">
         <v>-1.434250080839112</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>165.291938883193</v>
+      </c>
+      <c r="AC17" t="n">
         <v>19.72064058831398</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AD17" t="n">
+        <v>132.9917243186464</v>
+      </c>
+      <c r="AE17" t="n">
         <v>24.85222816467286</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
+        <v>104.0634385448821</v>
+      </c>
+      <c r="AG17" t="n">
         <v>16.66710376739503</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AH17" t="n">
         <v>59.97791799725837</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AI17" t="n">
         <v>80.15700507168083</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AJ17" t="n">
         <v>128.9468550900404</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AK17" t="n">
         <v>-0.05882864302777246</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
         <v>-0.07755864173807536</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>0.2940987018828682</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AN17" t="n">
         <v>-0.04651045545618348</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AO17" t="n">
         <v>0.5153373200842655</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AP17" t="n">
         <v>-0.05683283856574661</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AQ17" t="n">
         <v>1.097814580227468</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AR17" t="n">
         <v>-0.07130668518391126</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AS17" t="n">
         <v>1.175454195509568</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AT17" t="n">
         <v>-0.03517542747741098</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AU17" t="n">
         <v>-0.5879340522335106</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AV17" t="n">
         <v>0.541077034913255</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
         <v>0.264182877653179</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
         <v>0.04797041695480891</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AY17" t="n">
         <v>3.781584369831553</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AZ17" t="n">
         <v>-0.3824434597025705</v>
       </c>
     </row>
@@ -2439,105 +3234,150 @@
         <v>2.25</v>
       </c>
       <c r="D18" t="n">
+        <v>232.0061035295751</v>
+      </c>
+      <c r="E18" t="n">
         <v>5.984948543792077</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>232.3108024895191</v>
+      </c>
+      <c r="G18" t="n">
         <v>13.99051585095994</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>227.5002155135921</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.8144135170794513</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>230.5795236629375</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.663836134240983</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>224.1446482374313</v>
+      </c>
+      <c r="M18" t="n">
         <v>10.64301044382947</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>230.5291131812525</v>
+      </c>
+      <c r="O18" t="n">
         <v>15.5747707853926</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
+        <v>226.8306929380336</v>
+      </c>
+      <c r="Q18" t="n">
         <v>23.02436524249138</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>183.4144072329745</v>
+      </c>
+      <c r="S18" t="n">
         <v>25.06920682623031</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
+        <v>178.4729901780473</v>
+      </c>
+      <c r="U18" t="n">
         <v>17.01968477127399</v>
       </c>
-      <c r="M18" t="n">
+      <c r="V18" t="n">
+        <v>181.0083389282227</v>
+      </c>
+      <c r="W18" t="n">
         <v>8.153598866564154</v>
       </c>
-      <c r="N18" t="n">
+      <c r="X18" t="n">
+        <v>168.8593712258846</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.830212410460122</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Z18" t="n">
+        <v>175.0229378964039</v>
+      </c>
+      <c r="AA18" t="n">
         <v>-1.526248201410823</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
+        <v>166.8793323192191</v>
+      </c>
+      <c r="AC18" t="n">
         <v>19.59006076163434</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AD18" t="n">
+        <v>134.2990383188775</v>
+      </c>
+      <c r="AE18" t="n">
         <v>24.54653750074671</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
+        <v>105.3089377727914</v>
+      </c>
+      <c r="AG18" t="n">
         <v>16.37442416333138</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AH18" t="n">
         <v>59.69932624679406</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AI18" t="n">
         <v>80.19153688432954</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AJ18" t="n">
         <v>133.2010605498476</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AK18" t="n">
         <v>-0.1354299961252385</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
         <v>-0.02292641933928285</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AM18" t="n">
         <v>0.3071613768313801</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AN18" t="n">
         <v>0.05638326736206878</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>0.5002497358525062</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
         <v>-0.04106018137424571</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AQ18" t="n">
         <v>0.9762454540171506</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AR18" t="n">
         <v>-0.1137515331836476</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AS18" t="n">
         <v>1.024430482945543</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AT18" t="n">
         <v>-0.1318370408200229</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
         <v>0.7094510701459587</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AV18" t="n">
         <v>0.8550009167823431</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AW18" t="n">
         <v>0.5692548240082553</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AX18" t="n">
         <v>0.4272448452708467</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AY18" t="n">
         <v>2.987994613520392</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AZ18" t="n">
         <v>-0.7345057721969629</v>
       </c>
     </row>
@@ -2552,105 +3392,150 @@
         <v>2.25</v>
       </c>
       <c r="D19" t="n">
+        <v>232.895494553637</v>
+      </c>
+      <c r="E19" t="n">
         <v>6.140701821509831</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>233.1540042415579</v>
+      </c>
+      <c r="G19" t="n">
         <v>15.81732871684622</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>227.5237027793489</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.6458647707675382</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>230.7625529613901</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.74085446621509</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>225.0223274719208</v>
+      </c>
+      <c r="M19" t="n">
         <v>10.91201863390334</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>231.4421614433857</v>
+      </c>
+      <c r="O19" t="n">
         <v>15.92287408544662</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
+        <v>227.9745463361131</v>
+      </c>
+      <c r="Q19" t="n">
         <v>23.23234487087169</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>184.4233753833365</v>
+      </c>
+      <c r="S19" t="n">
         <v>25.20742872928052</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
+        <v>179.5230829969366</v>
+      </c>
+      <c r="U19" t="n">
         <v>17.20500296734749</v>
       </c>
-      <c r="M19" t="n">
+      <c r="V19" t="n">
+        <v>181.554413856344</v>
+      </c>
+      <c r="W19" t="n">
         <v>8.071608239031857</v>
       </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>169.4382591450468</v>
+      </c>
+      <c r="Y19" t="n">
         <v>7.10466770415611</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Z19" t="n">
+        <v>174.9067788428449</v>
+      </c>
+      <c r="AA19" t="n">
         <v>-1.42984085894645</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
+        <v>168.1360267578287</v>
+      </c>
+      <c r="AC19" t="n">
         <v>19.94821771662286</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AD19" t="n">
+        <v>134.8936953443162</v>
+      </c>
+      <c r="AE19" t="n">
         <v>24.71512987258587</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
+        <v>106.570986991233</v>
+      </c>
+      <c r="AG19" t="n">
         <v>16.67657304317394</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AH19" t="n">
         <v>61.71668281908003</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AI19" t="n">
         <v>81.73221312220915</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AJ19" t="n">
         <v>136.3566131873369</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AK19" t="n">
         <v>-0.1290048690552421</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AL19" t="n">
         <v>-0.02874148652908692</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AM19" t="n">
         <v>0.4093956440053113</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AN19" t="n">
         <v>0.01315468169272993</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AO19" t="n">
         <v>0.4393055083903841</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AP19" t="n">
         <v>-0.0190660040429309</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>0.9134917817217234</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AR19" t="n">
         <v>0.00387912100933896</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AS19" t="n">
         <v>1.023633175707872</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
         <v>0.04105295272583742</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AU19" t="n">
         <v>1.284906961310804</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>0.4520758026623376</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
         <v>1.247186999902585</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AX19" t="n">
         <v>0.1190567959897107</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AY19" t="n">
         <v>2.436965399802006</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AZ19" t="n">
         <v>-0.2945451949886839</v>
       </c>
     </row>
@@ -2665,105 +3550,150 @@
         <v>2.25</v>
       </c>
       <c r="D20" t="n">
+        <v>234.0878730045355</v>
+      </c>
+      <c r="E20" t="n">
         <v>6.340244983104954</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>234.7445740701353</v>
+      </c>
+      <c r="G20" t="n">
         <v>14.19765695612481</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>227.4410067562093</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.5292415618896484</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>223.499706609452</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.234515859725624</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>225.9207854404094</v>
+      </c>
+      <c r="M20" t="n">
         <v>11.09637503928327</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>232.3092530501333</v>
+      </c>
+      <c r="O20" t="n">
         <v>16.00527459002556</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
+        <v>228.788316598598</v>
+      </c>
+      <c r="Q20" t="n">
         <v>23.28776349412634</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>185.8322245009402</v>
+      </c>
+      <c r="S20" t="n">
         <v>25.18598526082141</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
+        <v>180.6879870435025</v>
+      </c>
+      <c r="U20" t="n">
         <v>17.10610491164187</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>182.0562524998442</v>
+      </c>
+      <c r="W20" t="n">
         <v>7.877970756368438</v>
       </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
+        <v>169.8933182878697</v>
+      </c>
+      <c r="Y20" t="n">
         <v>7.343622978697434</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Z20" t="n">
+        <v>174.7355953175971</v>
+      </c>
+      <c r="AA20" t="n">
         <v>-1.463374685733879</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
+        <v>169.3347416025527</v>
+      </c>
+      <c r="AC20" t="n">
         <v>20.19282604785675</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AD20" t="n">
+        <v>136.0085862748166</v>
+      </c>
+      <c r="AE20" t="n">
         <v>25.04391213680835</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
+        <v>108.3195135948506</v>
+      </c>
+      <c r="AG20" t="n">
         <v>17.34270390043867</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AH20" t="n">
         <v>63.40101834064862</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AI20" t="n">
         <v>83.49408945506647</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AJ20" t="n">
         <v>139.4148171832205</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AK20" t="n">
         <v>-0.1677500440719273</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AL20" t="n">
         <v>-0.01574393282545428</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AM20" t="n">
         <v>0.3705341765221117</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AN20" t="n">
         <v>0.03145990219521977</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AO20" t="n">
         <v>0.5203238193024982</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AP20" t="n">
         <v>0.09857593698704645</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>0.9468442582069541</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AR20" t="n">
         <v>-0.065140774909485</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
         <v>1.0079525886698</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AT20" t="n">
         <v>-0.09760818582899634</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AU20" t="n">
         <v>1.230778079839172</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AV20" t="n">
         <v>0.3028552454054131</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AW20" t="n">
         <v>-0.01084468783113274</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AX20" t="n">
         <v>-1.153389518820076</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AY20" t="n">
         <v>1.752369343697147</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AZ20" t="n">
         <v>-1.123863579897634</v>
       </c>
     </row>
@@ -2778,105 +3708,150 @@
         <v>2.25</v>
       </c>
       <c r="D21" t="n">
+        <v>235.4209656212875</v>
+      </c>
+      <c r="E21" t="n">
         <v>6.275643693639879</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>235.6457964616253</v>
+      </c>
+      <c r="G21" t="n">
         <v>17.20365869238022</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>227.4984981389122</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.346102613083861</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>223.7319209791245</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.970041680843277</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>226.6267255820493</v>
+      </c>
+      <c r="M21" t="n">
         <v>11.17503389399103</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>232.9347907189042</v>
+      </c>
+      <c r="O21" t="n">
         <v>16.15989969131795</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
+        <v>228.9397278047622</v>
+      </c>
+      <c r="Q21" t="n">
         <v>23.33070572386397</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>186.7295333679687</v>
+      </c>
+      <c r="S21" t="n">
         <v>24.93655377245964</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>181.6522334484344</v>
+      </c>
+      <c r="U21" t="n">
         <v>17.03405583158453</v>
       </c>
-      <c r="M21" t="n">
+      <c r="V21" t="n">
+        <v>182.8016651437638</v>
+      </c>
+      <c r="W21" t="n">
         <v>7.736846233936074</v>
       </c>
-      <c r="N21" t="n">
+      <c r="X21" t="n">
+        <v>170.4084216280186</v>
+      </c>
+      <c r="Y21" t="n">
         <v>7.75450645609105</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>174.5617909634367</v>
+      </c>
+      <c r="AA21" t="n">
         <v>-1.463677020783114</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
+        <v>170.4729156291231</v>
+      </c>
+      <c r="AC21" t="n">
         <v>20.36789731776461</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AD21" t="n">
+        <v>136.6352877718337</v>
+      </c>
+      <c r="AE21" t="n">
         <v>25.2675066602991</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
+        <v>118.612269137768</v>
+      </c>
+      <c r="AG21" t="n">
         <v>18.9195343788634</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AH21" t="n">
         <v>65.36714905813318</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AI21" t="n">
         <v>81.74277033971202</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AJ21" t="n">
         <v>139.9277813261844</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AK21" t="n">
         <v>-0.1737721422885352</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
         <v>0.03244128633052812</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AM21" t="n">
         <v>0.4397402418420651</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AN21" t="n">
         <v>0.09177929543434438</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AO21" t="n">
         <v>0.5401975296913308</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AP21" t="n">
         <v>-0.0356309591455668</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AQ21" t="n">
         <v>0.728740717502351</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
         <v>-0.009176325290759291</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
         <v>0.840958509039373</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
         <v>0.03878696167722541</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AU21" t="n">
         <v>1.976500578506985</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AV21" t="n">
         <v>0.5687810053740052</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AW21" t="n">
         <v>-0.6384913820179716</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AX21" t="n">
         <v>0.7847975776099321</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AY21" t="n">
         <v>0.2212640535663071</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AZ21" t="n">
         <v>0.124721578549712</v>
       </c>
     </row>
@@ -2891,105 +3866,150 @@
         <v>2.25</v>
       </c>
       <c r="D22" t="n">
+        <v>236.6322321777648</v>
+      </c>
+      <c r="E22" t="n">
         <v>6.31144198965519</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>236.5132057960046</v>
+      </c>
+      <c r="G22" t="n">
         <v>17.41333312176644</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>227.4430272783688</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.5357539400141285</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>223.6763754740675</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.218126865143471</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>227.22512684921</v>
+      </c>
+      <c r="M22" t="n">
         <v>11.40053627338815</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>233.4726886150051</v>
+      </c>
+      <c r="O22" t="n">
         <v>16.17791399042657</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>229.9193322658539</v>
+      </c>
+      <c r="Q22" t="n">
         <v>23.53457846540086</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>187.7595533715918</v>
+      </c>
+      <c r="S22" t="n">
         <v>25.00005935100799</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
+        <v>182.425227571041</v>
+      </c>
+      <c r="U22" t="n">
         <v>17.2376866036273</v>
       </c>
-      <c r="M22" t="n">
+      <c r="V22" t="n">
+        <v>183.3273002441893</v>
+      </c>
+      <c r="W22" t="n">
         <v>7.734490455465115</v>
       </c>
-      <c r="N22" t="n">
+      <c r="X22" t="n">
+        <v>170.9977961601095</v>
+      </c>
+      <c r="Y22" t="n">
         <v>8.071181114683759</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Z22" t="n">
+        <v>174.4072746723256</v>
+      </c>
+      <c r="AA22" t="n">
         <v>-1.330818013941988</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>171.6901578801744</v>
+      </c>
+      <c r="AC22" t="n">
         <v>20.77455064083667</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AD22" t="n">
+        <v>138.5163007898534</v>
+      </c>
+      <c r="AE22" t="n">
         <v>25.78956928658993</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AF22" t="n">
+        <v>112.3850660121188</v>
+      </c>
+      <c r="AG22" t="n">
         <v>19.26839098017266</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AH22" t="n">
         <v>68.0126438279212</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AI22" t="n">
         <v>82.20409250989923</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AJ22" t="n">
         <v>140.3547447008258</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AK22" t="n">
         <v>-0.09513459307081805</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AL22" t="n">
         <v>0.08781127473141481</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AM22" t="n">
         <v>0.574801323261668</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AN22" t="n">
         <v>0.1420628517232019</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AO22" t="n">
         <v>0.5074777501694685</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AP22" t="n">
         <v>0.1034574939849522</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AQ22" t="n">
         <v>0.9114430305805623</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AR22" t="n">
         <v>0.1263406682521713</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AS22" t="n">
         <v>1.006596773228746</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AT22" t="n">
         <v>0.08678049483197767</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AU22" t="n">
         <v>2.510017934296423</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AV22" t="n">
         <v>0.6807092744671329</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AW22" t="n">
         <v>1.304718012043387</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AX22" t="n">
         <v>0.5533229176427805</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AY22" t="n">
         <v>1.957582150919596</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AZ22" t="n">
         <v>0.4048626632511783</v>
       </c>
     </row>
@@ -3004,105 +4024,150 @@
         <v>2.25</v>
       </c>
       <c r="D23" t="n">
+        <v>230.1568116437882</v>
+      </c>
+      <c r="E23" t="n">
         <v>7.17749291277946</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>230.5700278860774</v>
+      </c>
+      <c r="G23" t="n">
         <v>16.59226620450933</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>227.398250969325</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.4638235619727614</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>224.0549992849218</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.312600480749246</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>228.0680091734579</v>
+      </c>
+      <c r="M23" t="n">
         <v>11.40773042719414</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>220.9732381666595</v>
+      </c>
+      <c r="O23" t="n">
         <v>15.39022871788512</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>230.9582906834623</v>
+      </c>
+      <c r="Q23" t="n">
         <v>23.2665589515199</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>188.9489305780289</v>
+      </c>
+      <c r="S23" t="n">
         <v>25.00473894971483</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
+        <v>183.6043652067793</v>
+      </c>
+      <c r="U23" t="n">
         <v>17.28807814577793</v>
       </c>
-      <c r="M23" t="n">
+      <c r="V23" t="n">
+        <v>183.9589491803595</v>
+      </c>
+      <c r="W23" t="n">
         <v>7.74036975617105</v>
       </c>
-      <c r="N23" t="n">
+      <c r="X23" t="n">
+        <v>171.751019041589</v>
+      </c>
+      <c r="Y23" t="n">
         <v>8.320810439738827</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
+        <v>174.3816015568186</v>
+      </c>
+      <c r="AA23" t="n">
         <v>-1.19465259795493</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
+        <v>172.8183670246855</v>
+      </c>
+      <c r="AC23" t="n">
         <v>21.16519136631743</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AD23" t="n">
+        <v>141.2232840314825</v>
+      </c>
+      <c r="AE23" t="n">
         <v>27.16822573479186</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AF23" t="n">
+        <v>114.1558342791618</v>
+      </c>
+      <c r="AG23" t="n">
         <v>19.98475511023339</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AH23" t="n">
         <v>71.62992115295368</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AI23" t="n">
         <v>84.56361411138118</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AJ23" t="n">
         <v>143.3715500829334</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AK23" t="n">
         <v>0.003125692935702421</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AL23" t="n">
         <v>0.06229186311680967</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
         <v>0.7167146560993558</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AN23" t="n">
         <v>0.1721478523092057</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AO23" t="n">
         <v>0.7003391042668775</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AP23" t="n">
         <v>0.1097350044453398</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AQ23" t="n">
         <v>0.9853030772919311</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AR23" t="n">
         <v>-0.01225376382787147</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AS23" t="n">
         <v>2.061522355739108</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AT23" t="n">
         <v>0.9799019928942343</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AU23" t="n">
         <v>3.434008633050895</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
         <v>0.8414268478645948</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AW23" t="n">
         <v>0.8985095649146357</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AX23" t="n">
         <v>-0.7441225011885301</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AY23" t="n">
         <v>0.05705502500870907</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AZ23" t="n">
         <v>-2.166116848518343</v>
       </c>
     </row>
@@ -3117,105 +4182,150 @@
         <v>2.25</v>
       </c>
       <c r="D24" t="n">
+        <v>239.0882458062248</v>
+      </c>
+      <c r="E24" t="n">
         <v>5.939141740190218</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>239.2903890579622</v>
+      </c>
+      <c r="G24" t="n">
         <v>17.09408455706657</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>227.4926090018546</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.495569756690493</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>224.2693558810873</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.410986190146582</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>229.0437956439688</v>
+      </c>
+      <c r="M24" t="n">
         <v>11.89299441398458</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>222.4190851792376</v>
+      </c>
+      <c r="O24" t="n">
         <v>15.63787155963005</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>231.9890507992278</v>
+      </c>
+      <c r="Q24" t="n">
         <v>23.13924190845896</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>194.0752036393957</v>
+      </c>
+      <c r="S24" t="n">
         <v>25.11167323335688</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
+        <v>184.6819849724465</v>
+      </c>
+      <c r="U24" t="n">
         <v>17.43331767143087</v>
       </c>
-      <c r="M24" t="n">
+      <c r="V24" t="n">
+        <v>184.8827017114517</v>
+      </c>
+      <c r="W24" t="n">
         <v>7.96914100646973</v>
       </c>
-      <c r="N24" t="n">
+      <c r="X24" t="n">
+        <v>172.6507506471999</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.724781807432779</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Z24" t="n">
+        <v>174.4212219055663</v>
+      </c>
+      <c r="AA24" t="n">
         <v>-1.177046146798638</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
+        <v>174.1386956356942</v>
+      </c>
+      <c r="AC24" t="n">
         <v>21.58993254316615</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AD24" t="n">
+        <v>143.5152951707231</v>
+      </c>
+      <c r="AE24" t="n">
         <v>27.99928543415475</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AF24" t="n">
+        <v>115.7413533393373</v>
+      </c>
+      <c r="AG24" t="n">
         <v>20.48589878893913</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AH24" t="n">
         <v>76.04147892617033</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AI24" t="n">
         <v>84.71900494777398</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AJ24" t="n">
         <v>139.0908559401219</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AK24" t="n">
         <v>0.02524548388541703</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AL24" t="n">
         <v>0.03335152534728269</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AM24" t="n">
         <v>0.9721203053251211</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AN24" t="n">
         <v>0.2375184855562607</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
         <v>0.7870622137759566</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
         <v>0.1724522164527413</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AQ24" t="n">
         <v>0.9292246179377798</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AR24" t="n">
         <v>0.0811637716090452</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AS24" t="n">
         <v>1.946638397713924</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AT24" t="n">
         <v>-0.9591898226991633</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AU24" t="n">
         <v>4.67901263656454</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AV24" t="n">
         <v>1.633725722847394</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AW24" t="n">
         <v>-0.202695872513746</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AX24" t="n">
         <v>-0.0759820322034839</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AY24" t="n">
         <v>-1.328310609180595</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AZ24" t="n">
         <v>0.611990939325542</v>
       </c>
     </row>
@@ -3230,105 +4340,150 @@
         <v>2.25</v>
       </c>
       <c r="D25" t="n">
+        <v>240.5357557685768</v>
+      </c>
+      <c r="E25" t="n">
         <v>5.688344671371135</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>238.6054511835918</v>
+      </c>
+      <c r="G25" t="n">
         <v>16.21816310476749</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>227.5626125448244</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.4868679858268569</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>220.2933152305319</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.701718431838017</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>229.8164021303045</v>
+      </c>
+      <c r="M25" t="n">
         <v>12.09231640430207</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>230.7719247217508</v>
+      </c>
+      <c r="O25" t="n">
         <v>15.70803358199749</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>217.4965623290615</v>
+      </c>
+      <c r="Q25" t="n">
         <v>21.72351999485747</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>195.2493309340579</v>
+      </c>
+      <c r="S25" t="n">
         <v>25.33322547344451</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
+        <v>185.8496244917525</v>
+      </c>
+      <c r="U25" t="n">
         <v>17.72635135244816</v>
       </c>
-      <c r="M25" t="n">
+      <c r="V25" t="n">
+        <v>185.7262334925063</v>
+      </c>
+      <c r="W25" t="n">
         <v>7.969690891022383</v>
       </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>174.0868421311074</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.910777720999208</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
+        <v>174.4371644994046</v>
+      </c>
+      <c r="AA25" t="n">
         <v>-1.143410865296714</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>175.5206524057591</v>
+      </c>
+      <c r="AC25" t="n">
         <v>21.99969342414368</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AD25" t="n">
+        <v>144.4611042103869</v>
+      </c>
+      <c r="AE25" t="n">
         <v>29.09226011722646</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AF25" t="n">
+        <v>117.3225179631659</v>
+      </c>
+      <c r="AG25" t="n">
         <v>20.89325164226776</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AH25" t="n">
         <v>83.23093135913805</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AI25" t="n">
         <v>85.12377329351031</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AJ25" t="n">
         <v>139.2768330972488</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AK25" t="n">
         <v>0.09625160947758982</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AL25" t="n">
         <v>0.1368649462436142</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AM25" t="n">
         <v>1.246443707892237</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AN25" t="n">
         <v>0.1380678821117356</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AO25" t="n">
         <v>1.116393348003958</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AP25" t="n">
         <v>0.5076780598214361</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
         <v>1.260886420594885</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AR25" t="n">
         <v>0.271456989836182</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AS25" t="n">
         <v>1.209834978935567</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AT25" t="n">
         <v>0.1290779243758404</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AU25" t="n">
         <v>6.799195604460526</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AV25" t="n">
         <v>1.328785469409195</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AW25" t="n">
         <v>0.9620205620006002</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AX25" t="n">
         <v>0.3364857909834693</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AY25" t="n">
         <v>0.4380472696128775</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AZ25" t="n">
         <v>-0.2924267949927266</v>
       </c>
     </row>
@@ -3343,105 +4498,150 @@
         <v>2.25</v>
       </c>
       <c r="D26" t="n">
+        <v>241.6780437402269</v>
+      </c>
+      <c r="E26" t="n">
         <v>5.462278203761331</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>239.8398626754259</v>
+      </c>
+      <c r="G26" t="n">
         <v>14.30843586617328</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>223.9178805592212</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.388245562289629</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>220.8004666294189</v>
+      </c>
+      <c r="K26" t="n">
         <v>6.023388720573262</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>230.7671391702396</v>
+      </c>
+      <c r="M26" t="n">
         <v>12.26143735520384</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>225.1776492183513</v>
+      </c>
+      <c r="O26" t="n">
         <v>15.92567525011428</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>234.2898078817636</v>
+      </c>
+      <c r="Q26" t="n">
         <v>23.30002074546003</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>196.7643689284934</v>
+      </c>
+      <c r="S26" t="n">
         <v>25.34492168020694</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
+        <v>187.6917448449642</v>
+      </c>
+      <c r="U26" t="n">
         <v>17.74548976979356</v>
       </c>
-      <c r="M26" t="n">
+      <c r="V26" t="n">
+        <v>188.1022866736067</v>
+      </c>
+      <c r="W26" t="n">
         <v>8.200244700655016</v>
       </c>
-      <c r="N26" t="n">
+      <c r="X26" t="n">
+        <v>175.8417882817857</v>
+      </c>
+      <c r="Y26" t="n">
         <v>8.638650813001261</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Z26" t="n">
+        <v>174.9182165937221</v>
+      </c>
+      <c r="AA26" t="n">
         <v>-1.419403197917534</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
+        <v>176.9977042015562</v>
+      </c>
+      <c r="AC26" t="n">
         <v>22.08636314310926</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AD26" t="n">
+        <v>145.9549320505021</v>
+      </c>
+      <c r="AE26" t="n">
         <v>29.6268549371273</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AF26" t="n">
+        <v>118.7983979570105</v>
+      </c>
+      <c r="AG26" t="n">
         <v>21.39991192107505</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AH26" t="n">
         <v>92.90062114246462</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AI26" t="n">
         <v>85.01095423818754</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AJ26" t="n">
         <v>137.3622771648841</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AK26" t="n">
         <v>0.528073310852057</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AL26" t="n">
         <v>0.2700753668521357</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>1.487258140076987</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AN26" t="n">
         <v>0.119630136388416</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AO26" t="n">
         <v>2.322575766989529</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AP26" t="n">
         <v>0.7864941307838924</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AQ26" t="n">
         <v>1.510479475589504</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
         <v>0.2514087773383897</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AS26" t="n">
         <v>1.2777419958977</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AT26" t="n">
         <v>0.1394812572509698</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AU26" t="n">
         <v>7.865408830477879</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AV26" t="n">
         <v>0.7018062877850776</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AW26" t="n">
         <v>-1.832749835939083</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AX26" t="n">
         <v>-1.338915598495364</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AY26" t="n">
         <v>-3.622229119853477</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AZ26" t="n">
         <v>-2.012554440619646</v>
       </c>
     </row>
